--- a/まとめたデータ/129_1000_5k_100k_1s_fsr.xlsx
+++ b/まとめたデータ/129_1000_5k_100k_1s_fsr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\まとめたデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3F75A41A-A056-4A33-AFC8-21EE10B0CB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51988522-E841-4ADD-98B0-716732D1E7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="129_1000_5k_100k_1s_fsr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,13 +695,26 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14435870516185476"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.77553018372703408"/>
+          <c:h val="0.72255431612715082"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>0.5秒ずつ</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -706,10 +729,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'129_1000_5k_100k_1s_fsr'!$A:$A</c:f>
+              <c:f>'129_1000_5k_100k_1s_fsr'!$A$1:$A$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1003,75 +1026,75 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'129_1000_5k_100k_1s_fsr'!$B$1:$B$96</c:f>
+              <c:f>'129_1000_5k_100k_1s_fsr'!$F$1:$F$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44</c:v>
+                  <c:v>1.4545454545454548</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54</c:v>
+                  <c:v>3.1296296296296298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39</c:v>
+                  <c:v>2.0769230769230766</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66</c:v>
+                  <c:v>2.9696969696969697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>10.560344827586206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84</c:v>
+                  <c:v>8.6785714285714306</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.53</c:v>
+                  <c:v>3.1886792452830188</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>7.7586206896551726</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.04</c:v>
+                  <c:v>7.0096153846153859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.64</c:v>
+                  <c:v>29.878048780487802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.17</c:v>
+                  <c:v>28.752136752136749</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.25</c:v>
+                  <c:v>22.472000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22</c:v>
+                  <c:v>0.18181818181818185</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1080,73 +1103,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.24</c:v>
+                  <c:v>0.16666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.88</c:v>
+                  <c:v>10.227272727272725</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.07</c:v>
+                  <c:v>7.3271028037383186</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>0.69827586206896552</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.48</c:v>
+                  <c:v>24.324324324324323</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.57</c:v>
+                  <c:v>15.292993630573246</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.49</c:v>
+                  <c:v>12.993288590604028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.43</c:v>
+                  <c:v>15.447552447552447</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.09</c:v>
+                  <c:v>23.444976076555022</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9</c:v>
+                  <c:v>25.78947368421052</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.59</c:v>
+                  <c:v>21.157232704402514</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.57</c:v>
+                  <c:v>19.267515923566883</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.36</c:v>
+                  <c:v>15.558823529411764</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.19</c:v>
+                  <c:v>12.134453781512606</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.07</c:v>
+                  <c:v>10.177570093457945</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.08</c:v>
+                  <c:v>10.703703703703704</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>11.889908256880732</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>13.009009009009009</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.03</c:v>
+                  <c:v>7.6116504854368952</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.64</c:v>
+                  <c:v>1.890625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.45</c:v>
+                  <c:v>0.35555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.41</c:v>
+                  <c:v>0.60975609756097571</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -1161,139 +1184,139 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.24</c:v>
+                  <c:v>4.1666666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.34</c:v>
+                  <c:v>2.3823529411764701</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.53</c:v>
+                  <c:v>6.8113207547169807</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>3.947368421052631</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.53</c:v>
+                  <c:v>0.92452830188679247</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.74</c:v>
+                  <c:v>5.4054054054054061</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.95</c:v>
+                  <c:v>10.778947368421054</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.83</c:v>
+                  <c:v>8.7831325301204846</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>4.3214285714285712</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.28</c:v>
+                  <c:v>7.5078125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.28</c:v>
+                  <c:v>8.5078125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3</c:v>
+                  <c:v>9.4230769230769234</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.38</c:v>
+                  <c:v>10.463768115942029</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3</c:v>
+                  <c:v>9.9692307692307676</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.1599999999999999</c:v>
+                  <c:v>6.7586206896551735</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1</c:v>
+                  <c:v>9.61</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.23</c:v>
+                  <c:v>14.341463414634143</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.3</c:v>
+                  <c:v>14.892307692307689</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.45</c:v>
+                  <c:v>16.558620689655175</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.45</c:v>
+                  <c:v>17.241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.44</c:v>
+                  <c:v>15.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.39</c:v>
+                  <c:v>14.568345323741008</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.43</c:v>
+                  <c:v>11.18881118881119</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.36</c:v>
+                  <c:v>10.617647058823529</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3</c:v>
+                  <c:v>11.107692307692309</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4</c:v>
+                  <c:v>12.007142857142858</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.4</c:v>
+                  <c:v>16.457142857142856</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.36</c:v>
+                  <c:v>16.242647058823525</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3</c:v>
+                  <c:v>11.107692307692309</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.17</c:v>
+                  <c:v>10.47008547008547</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.23</c:v>
+                  <c:v>15.032520325203253</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.34</c:v>
+                  <c:v>13.798507462686567</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.22</c:v>
+                  <c:v>12.467213114754101</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0900000000000001</c:v>
+                  <c:v>11.238532110091741</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.26</c:v>
+                  <c:v>13.34126984126984</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.25</c:v>
+                  <c:v>12.167999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.41</c:v>
+                  <c:v>11.921985815602836</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.18</c:v>
+                  <c:v>11.601694915254237</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.06</c:v>
+                  <c:v>12.226415094339623</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.9</c:v>
+                  <c:v>11.377777777777778</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.76</c:v>
+                  <c:v>11.842105263157894</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.69</c:v>
+                  <c:v>11.362318840579714</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.68</c:v>
+                  <c:v>9.9411764705882355</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.6</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5168,16 +5191,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>557212</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5205,15 +5228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5573,16 +5596,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>5</v>
       </c>
@@ -5599,8 +5622,12 @@
         <f>C1/D1*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1">
+        <f>C1*E1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5617,8 +5644,12 @@
         <f t="shared" ref="E2:E65" si="0">C2/D2*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="1">C2*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7</v>
       </c>
@@ -5635,8 +5666,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8</v>
       </c>
@@ -5653,8 +5688,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9</v>
       </c>
@@ -5671,8 +5710,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -5689,8 +5732,12 @@
         <f t="shared" si="0"/>
         <v>18.181818181818183</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.4545454545454548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>11</v>
       </c>
@@ -5707,8 +5754,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>12</v>
       </c>
@@ -5725,8 +5776,12 @@
         <f t="shared" si="0"/>
         <v>24.074074074074073</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.1296296296296298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>13</v>
       </c>
@@ -5743,8 +5798,12 @@
         <f t="shared" si="0"/>
         <v>23.076923076923077</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.0769230769230766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>14</v>
       </c>
@@ -5761,8 +5820,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>15</v>
       </c>
@@ -5779,8 +5842,12 @@
         <f t="shared" si="0"/>
         <v>21.212121212121211</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.9696969696969697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>16</v>
       </c>
@@ -5797,8 +5864,12 @@
         <f t="shared" si="0"/>
         <v>30.172413793103448</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>10.560344827586206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>17</v>
       </c>
@@ -5815,8 +5886,12 @@
         <f t="shared" si="0"/>
         <v>32.142857142857146</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>8.6785714285714306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>18</v>
       </c>
@@ -5833,8 +5908,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>19</v>
       </c>
@@ -5851,8 +5930,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>20</v>
       </c>
@@ -5869,8 +5952,12 @@
         <f t="shared" si="0"/>
         <v>24.528301886792452</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3.1886792452830188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>21</v>
       </c>
@@ -5887,8 +5974,12 @@
         <f t="shared" si="0"/>
         <v>25.862068965517242</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>7.7586206896551726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>22</v>
       </c>
@@ -5905,8 +5996,12 @@
         <f t="shared" si="0"/>
         <v>25.961538461538463</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>7.0096153846153859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>23</v>
       </c>
@@ -5923,8 +6018,12 @@
         <f t="shared" si="0"/>
         <v>42.68292682926829</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>29.878048780487802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>24</v>
       </c>
@@ -5941,8 +6040,12 @@
         <f t="shared" si="0"/>
         <v>49.572649572649574</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>28.752136752136749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>25</v>
       </c>
@@ -5959,8 +6062,12 @@
         <f t="shared" si="0"/>
         <v>42.400000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>22.472000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>26</v>
       </c>
@@ -5977,8 +6084,12 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090917</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.18181818181818185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>27</v>
       </c>
@@ -5995,8 +6106,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>28</v>
       </c>
@@ -6013,8 +6128,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>29</v>
       </c>
@@ -6031,8 +6150,12 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>30</v>
       </c>
@@ -6049,8 +6172,12 @@
         <f t="shared" si="0"/>
         <v>34.090909090909086</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>10.227272727272725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>31</v>
       </c>
@@ -6067,8 +6194,12 @@
         <f t="shared" si="0"/>
         <v>26.168224299065422</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>7.3271028037383186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>32</v>
       </c>
@@ -6085,8 +6216,12 @@
         <f t="shared" si="0"/>
         <v>7.7586206896551726</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.69827586206896552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>33</v>
       </c>
@@ -6103,8 +6238,12 @@
         <f t="shared" si="0"/>
         <v>40.54054054054054</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>24.324324324324323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>34</v>
       </c>
@@ -6121,8 +6260,12 @@
         <f t="shared" si="0"/>
         <v>31.210191082802545</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>15.292993630573246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35</v>
       </c>
@@ -6139,8 +6282,12 @@
         <f t="shared" si="0"/>
         <v>29.530201342281881</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>12.993288590604028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>36</v>
       </c>
@@ -6157,8 +6304,12 @@
         <f t="shared" si="0"/>
         <v>32.867132867132867</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>15.447552447552447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>37</v>
       </c>
@@ -6175,8 +6326,12 @@
         <f t="shared" si="0"/>
         <v>33.492822966507177</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>23.444976076555022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>38</v>
       </c>
@@ -6193,8 +6348,12 @@
         <f t="shared" si="0"/>
         <v>36.84210526315789</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>25.78947368421052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>39</v>
       </c>
@@ -6211,8 +6370,12 @@
         <f t="shared" si="0"/>
         <v>36.477987421383645</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>21.157232704402514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>40</v>
       </c>
@@ -6229,8 +6392,12 @@
         <f t="shared" si="0"/>
         <v>35.031847133757964</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>19.267515923566883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>41</v>
       </c>
@@ -6247,8 +6414,12 @@
         <f t="shared" si="0"/>
         <v>33.823529411764703</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>15.558823529411764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>42</v>
       </c>
@@ -6265,8 +6436,12 @@
         <f t="shared" si="0"/>
         <v>31.932773109243701</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>12.134453781512606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>43</v>
       </c>
@@ -6283,8 +6458,12 @@
         <f t="shared" si="0"/>
         <v>30.841121495327101</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>10.177570093457945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>44</v>
       </c>
@@ -6301,8 +6480,12 @@
         <f t="shared" si="0"/>
         <v>31.481481481481481</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>10.703703703703704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>45</v>
       </c>
@@ -6319,8 +6502,12 @@
         <f t="shared" si="0"/>
         <v>33.027522935779814</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>11.889908256880732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>46</v>
       </c>
@@ -6337,8 +6524,12 @@
         <f t="shared" si="0"/>
         <v>34.234234234234236</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>13.009009009009009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>47</v>
       </c>
@@ -6355,8 +6546,12 @@
         <f t="shared" si="0"/>
         <v>27.184466019417481</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>7.6116504854368952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>48</v>
       </c>
@@ -6373,8 +6568,12 @@
         <f t="shared" si="0"/>
         <v>17.1875</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1.890625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>49</v>
       </c>
@@ -6391,8 +6590,12 @@
         <f t="shared" si="0"/>
         <v>8.8888888888888893</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.35555555555555557</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>50</v>
       </c>
@@ -6409,8 +6612,12 @@
         <f t="shared" si="0"/>
         <v>12.195121951219514</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.60975609756097571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>51</v>
       </c>
@@ -6427,8 +6634,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>52</v>
       </c>
@@ -6445,8 +6656,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>53</v>
       </c>
@@ -6463,8 +6678,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>54</v>
       </c>
@@ -6481,8 +6700,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>55</v>
       </c>
@@ -6499,8 +6722,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>56</v>
       </c>
@@ -6517,8 +6744,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>57</v>
       </c>
@@ -6535,8 +6766,12 @@
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666671E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>58</v>
       </c>
@@ -6553,8 +6788,12 @@
         <f t="shared" si="0"/>
         <v>26.470588235294112</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>2.3823529411764701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>59</v>
       </c>
@@ -6571,8 +6810,12 @@
         <f t="shared" si="0"/>
         <v>35.849056603773583</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>6.8113207547169807</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>60</v>
       </c>
@@ -6589,8 +6832,12 @@
         <f t="shared" si="0"/>
         <v>26.315789473684209</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>3.947368421052631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>61</v>
       </c>
@@ -6607,8 +6854,12 @@
         <f t="shared" si="0"/>
         <v>13.20754716981132</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.92452830188679247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>62</v>
       </c>
@@ -6625,8 +6876,12 @@
         <f t="shared" si="0"/>
         <v>27.027027027027028</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>5.4054054054054061</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>63</v>
       </c>
@@ -6643,8 +6898,12 @@
         <f t="shared" si="0"/>
         <v>33.684210526315795</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>10.778947368421054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>64</v>
       </c>
@@ -6661,8 +6920,12 @@
         <f t="shared" si="0"/>
         <v>32.530120481927717</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>8.7831325301204846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>65</v>
       </c>
@@ -6679,8 +6942,12 @@
         <f t="shared" si="0"/>
         <v>19.642857142857142</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>4.3214285714285712</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>66</v>
       </c>
@@ -6697,8 +6964,12 @@
         <f t="shared" si="0"/>
         <v>24.21875</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>7.5078125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>67</v>
       </c>
@@ -6715,8 +6986,12 @@
         <f t="shared" si="0"/>
         <v>25.78125</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>8.5078125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>68</v>
       </c>
@@ -6733,8 +7008,12 @@
         <f t="shared" si="0"/>
         <v>26.923076923076923</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>9.4230769230769234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>69</v>
       </c>
@@ -6751,8 +7030,12 @@
         <f t="shared" si="0"/>
         <v>27.536231884057973</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>10.463768115942029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>70</v>
       </c>
@@ -6766,11 +7049,15 @@
         <v>1.3</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E96" si="1">C66/D66*100</f>
+        <f t="shared" ref="E66:E96" si="2">C66/D66*100</f>
         <v>27.69230769230769</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66">
+        <f t="shared" ref="F66:F96" si="3">C66*E66</f>
+        <v>9.9692307692307676</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>71</v>
       </c>
@@ -6784,11 +7071,15 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.137931034482762</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67">
+        <f t="shared" si="3"/>
+        <v>6.7586206896551735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>72</v>
       </c>
@@ -6802,11 +7093,15 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>73</v>
       </c>
@@ -6820,11 +7115,15 @@
         <v>1.23</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.146341463414629</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>14.341463414634143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>74</v>
       </c>
@@ -6838,11 +7137,15 @@
         <v>1.3</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.84615384615384</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>14.892307692307689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>75</v>
       </c>
@@ -6856,11 +7159,15 @@
         <v>1.45</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.793103448275865</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>16.558620689655175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>76</v>
       </c>
@@ -6874,11 +7181,15 @@
         <v>1.45</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.482758620689658</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>17.241379310344829</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>77</v>
       </c>
@@ -6892,11 +7203,15 @@
         <v>1.44</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.333333333333329</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>15.999999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>78</v>
       </c>
@@ -6910,11 +7225,15 @@
         <v>1.39</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.374100719424462</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>14.568345323741008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>79</v>
       </c>
@@ -6928,11 +7247,15 @@
         <v>1.43</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.972027972027973</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>11.18881118881119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>80</v>
       </c>
@@ -6946,11 +7269,15 @@
         <v>1.36</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.941176470588236</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>10.617647058823529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>81</v>
       </c>
@@ -6964,11 +7291,15 @@
         <v>1.3</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.230769230769234</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>11.107692307692309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>82</v>
       </c>
@@ -6982,11 +7313,15 @@
         <v>1.4</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.285714285714288</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>12.007142857142858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>83</v>
       </c>
@@ -7000,11 +7335,15 @@
         <v>1.4</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.285714285714285</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>16.457142857142856</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>84</v>
       </c>
@@ -7018,11 +7357,15 @@
         <v>1.36</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.558823529411761</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>16.242647058823525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>85</v>
       </c>
@@ -7036,11 +7379,15 @@
         <v>1.3</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.230769230769234</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>11.107692307692309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>86</v>
       </c>
@@ -7054,11 +7401,15 @@
         <v>1.17</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.914529914529915</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>10.47008547008547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>87</v>
       </c>
@@ -7072,11 +7423,15 @@
         <v>1.23</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.959349593495936</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>15.032520325203253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>88</v>
       </c>
@@ -7090,11 +7445,15 @@
         <v>1.34</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.089552238805972</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>13.798507462686567</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>89</v>
       </c>
@@ -7108,11 +7467,15 @@
         <v>1.22</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.967213114754102</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>12.467213114754101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>90</v>
       </c>
@@ -7126,11 +7489,15 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.110091743119263</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>11.238532110091741</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>91</v>
       </c>
@@ -7144,11 +7511,15 @@
         <v>1.26</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.539682539682538</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>13.34126984126984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>92</v>
       </c>
@@ -7162,11 +7533,15 @@
         <v>1.25</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>12.167999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>93</v>
       </c>
@@ -7180,11 +7555,15 @@
         <v>1.41</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29.078014184397162</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>11.921985815602836</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7198,11 +7577,15 @@
         <v>1.18</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.35593220338983</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>11.601694915254237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7216,11 +7599,15 @@
         <v>1.06</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.962264150943398</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>12.226415094339623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>96</v>
       </c>
@@ -7234,11 +7621,15 @@
         <v>0.9</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.555555555555557</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>11.377777777777778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>97</v>
       </c>
@@ -7252,11 +7643,15 @@
         <v>0.76</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.473684210526315</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>11.842105263157894</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>98</v>
       </c>
@@ -7270,11 +7665,15 @@
         <v>0.69</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.579710144927546</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>11.362318840579714</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>99</v>
       </c>
@@ -7288,11 +7687,15 @@
         <v>0.68</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.235294117647058</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>9.9411764705882355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>100</v>
       </c>
@@ -7306,8 +7709,12 @@
         <v>0.6</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>

--- a/まとめたデータ/129_1000_5k_100k_1s_fsr.xlsx
+++ b/まとめたデータ/129_1000_5k_100k_1s_fsr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\まとめたデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51988522-E841-4ADD-98B0-716732D1E7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5186F0C-0932-4436-A63E-C70DC3C494EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5600,7 +5600,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
